--- a/Komponenter/BillOfMaterials_ControlCircuit.xlsx
+++ b/Komponenter/BillOfMaterials_ControlCircuit.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6959" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6963" uniqueCount="1082">
   <si>
     <t>export_id</t>
   </si>
@@ -3264,6 +3264,15 @@
   </si>
   <si>
     <t>HCPL-181-06BE</t>
+  </si>
+  <si>
+    <t>Finns på Farnell och RS-components (dock i utförandet</t>
+  </si>
+  <si>
+    <t>HCPL-181-00BE på RS-components, men de verkar likvärdiga)</t>
+  </si>
+  <si>
+    <t>Har utgått ur sortimentet på Elfa</t>
   </si>
 </sst>
 </file>
@@ -3437,7 +3446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
@@ -3453,6 +3462,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3750,13 +3761,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.85546875" bestFit="1" customWidth="1"/>
@@ -3816,7 +3827,7 @@
         <v>81</v>
       </c>
       <c r="H2">
-        <f>COUNTIF(C:C,G2)</f>
+        <f t="shared" ref="H2:H17" si="0">COUNTIF(C:C,G2)</f>
         <v>25</v>
       </c>
     </row>
@@ -3843,7 +3854,7 @@
         <v>423</v>
       </c>
       <c r="H3">
-        <f>COUNTIF(C:C,G3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3870,7 +3881,7 @@
         <v>406</v>
       </c>
       <c r="H4">
-        <f>COUNTIF(C:C,G4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3895,7 +3906,7 @@
         <v>99</v>
       </c>
       <c r="H5">
-        <f>COUNTIF(C:C,G5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3920,7 +3931,7 @@
         <v>103</v>
       </c>
       <c r="H6">
-        <f>COUNTIF(C:C,G6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -3945,7 +3956,7 @@
         <v>411</v>
       </c>
       <c r="H7">
-        <f>COUNTIF(C:C,G7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3970,7 +3981,7 @@
         <v>116</v>
       </c>
       <c r="H8">
-        <f>COUNTIF(C:C,G8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3995,7 +4006,7 @@
         <v>95</v>
       </c>
       <c r="H9">
-        <f>COUNTIF(C:C,G9)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -4020,7 +4031,7 @@
         <v>401</v>
       </c>
       <c r="H10">
-        <f>COUNTIF(C:C,G10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4045,7 +4056,7 @@
         <v>67</v>
       </c>
       <c r="H11">
-        <f>COUNTIF(C:C,G11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4070,7 +4081,7 @@
         <v>85</v>
       </c>
       <c r="H12">
-        <f>COUNTIF(C:C,G12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4095,7 +4106,7 @@
         <v>120</v>
       </c>
       <c r="H13">
-        <f>COUNTIF(C:C,G13)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -4120,7 +4131,7 @@
         <v>124</v>
       </c>
       <c r="H14">
-        <f>COUNTIF(C:C,G14)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -4145,7 +4156,7 @@
         <v>268</v>
       </c>
       <c r="H15">
-        <f>COUNTIF(C:C,G15)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I15" t="s">
@@ -4173,7 +4184,7 @@
         <v>392</v>
       </c>
       <c r="H16">
-        <f>COUNTIF(C:C,G16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4198,7 +4209,7 @@
         <v>71</v>
       </c>
       <c r="H17">
-        <f>COUNTIF(C:C,G17)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -5092,7 +5103,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>205</v>
       </c>
@@ -5113,7 +5124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -5131,7 +5142,7 @@
       </c>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -5149,7 +5160,7 @@
       </c>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -5167,7 +5178,7 @@
       </c>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>160</v>
       </c>
@@ -5185,7 +5196,7 @@
       </c>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>172</v>
       </c>
@@ -5203,7 +5214,7 @@
       </c>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>184</v>
       </c>
@@ -5221,7 +5232,7 @@
       </c>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -5241,7 +5252,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -5262,12 +5273,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>266</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>267</v>
+        <v>1078</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>268</v>
@@ -5279,13 +5290,16 @@
         <v>270</v>
       </c>
       <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="15" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>278</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>267</v>
+        <v>1078</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>268</v>
@@ -5297,13 +5311,16 @@
         <v>280</v>
       </c>
       <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="6" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>287</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>267</v>
+        <v>1078</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>268</v>
@@ -5315,13 +5332,16 @@
         <v>289</v>
       </c>
       <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="6" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>296</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>267</v>
+        <v>1078</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>268</v>
@@ -5334,12 +5354,12 @@
       </c>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>305</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>267</v>
+        <v>1078</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>268</v>
@@ -5351,13 +5371,16 @@
         <v>307</v>
       </c>
       <c r="F78" s="8"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="16" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>314</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>267</v>
+        <v>1078</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>268</v>
@@ -5370,12 +5393,12 @@
       </c>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>323</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>267</v>
+        <v>1078</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>268</v>
@@ -5395,7 +5418,7 @@
         <v>332</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>267</v>
+        <v>1078</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>268</v>
